--- a/mosip_master/xlsx/doc_category.xlsx
+++ b/mosip_master/xlsx/doc_category.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshitha.M\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Office\codes\bfa\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="500"/>
+    <workbookView xWindow="1092" yWindow="0" windowWidth="20496" windowHeight="7056" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>lang_code</t>
   </si>
@@ -41,115 +41,25 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>POA</t>
-  </si>
-  <si>
-    <t>Proof of Address</t>
-  </si>
-  <si>
-    <t>Address Proof</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>fra</t>
   </si>
   <si>
-    <t>Un justificatif de domicile</t>
-  </si>
-  <si>
-    <t>Preuve dadresse</t>
-  </si>
-  <si>
     <t>POI</t>
   </si>
   <si>
-    <t>Proof of Identity</t>
-  </si>
-  <si>
-    <t>Identity Proof</t>
-  </si>
-  <si>
-    <t>Preuve didentité</t>
-  </si>
-  <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>Proof of Relationship</t>
-  </si>
-  <si>
-    <t>Proof Relationship of the person</t>
-  </si>
-  <si>
-    <t>Preuve de relation</t>
-  </si>
-  <si>
-    <t>Preuve de relation de la personne</t>
-  </si>
-  <si>
-    <t>POB</t>
-  </si>
-  <si>
-    <t>Proof of Birth</t>
-  </si>
-  <si>
-    <t>Proof date of birth of the person</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>Preuve de naissance</t>
-  </si>
-  <si>
-    <t>Preuve de la date de naissance de la personne</t>
-  </si>
-  <si>
-    <t>POE</t>
-  </si>
-  <si>
-    <t>Proof of Biometric Exception</t>
-  </si>
-  <si>
-    <t>Preuve dexception biométrique</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t>إثبات العنوان</t>
-  </si>
-  <si>
-    <t>إثبات هوية</t>
-  </si>
-  <si>
-    <t>إثبات الهوية</t>
-  </si>
-  <si>
-    <t>إثبات العلاقة</t>
-  </si>
-  <si>
-    <t>إثبات علاقة الشخص</t>
-  </si>
-  <si>
-    <t>إثبات الميلاد</t>
-  </si>
-  <si>
-    <t>إثبات تاريخ ميلاد الشخص</t>
-  </si>
-  <si>
-    <t>إثبات الاستثناء البيومتري</t>
+    <t>Preuve d'identitÃ©</t>
+  </si>
+  <si>
+    <t>POC</t>
+  </si>
+  <si>
+    <t>Preuve de consentement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,17 +412,17 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -529,260 +439,117 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
